--- a/data copy/tickets.xlsx
+++ b/data copy/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epillus/Desktop/ticket_system/data copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260F240-2E07-4144-8778-E1ACE5D38845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE895D-515C-0F4E-B1E9-B1D8752C10EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="590">
   <si>
     <t>Zhou Qingyan</t>
   </si>
@@ -955,13 +955,853 @@
   </si>
   <si>
     <t>T6106</t>
+  </si>
+  <si>
+    <t>T6107</t>
+  </si>
+  <si>
+    <t>T6108</t>
+  </si>
+  <si>
+    <t>T6109</t>
+  </si>
+  <si>
+    <t>T6110</t>
+  </si>
+  <si>
+    <t>潘泓月</t>
+  </si>
+  <si>
+    <t>P240029@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>郝培元</t>
+  </si>
+  <si>
+    <t>haop0002@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Yu Zhenting </t>
+  </si>
+  <si>
+    <t>zyu018@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>庄凌菲</t>
+  </si>
+  <si>
+    <t>ZHUA0027@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>渠一诺</t>
+  </si>
+  <si>
+    <t>QUYI0004@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Tan Zhi Xi</t>
+  </si>
+  <si>
+    <t>A240064@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>王思元</t>
+  </si>
+  <si>
+    <t>WANG2254@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>曹欣然</t>
+  </si>
+  <si>
+    <t>CA0011AN@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Zhao Yijin </t>
+  </si>
+  <si>
+    <t>ZHAO0572@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>李思睿</t>
+  </si>
+  <si>
+    <t>LISI0047@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>王妤嫣</t>
+  </si>
+  <si>
+    <t>WANG2418@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>张舒涵</t>
+  </si>
+  <si>
+    <t>szhang091@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Huang Anran</t>
+  </si>
+  <si>
+    <t>AHUANG012@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>徐秋羽</t>
+  </si>
+  <si>
+    <t>NIE25.XQ0025@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>杨宸旭</t>
+  </si>
+  <si>
+    <t>chenxu001@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Lyu Xuantao</t>
+  </si>
+  <si>
+    <t>LYUX0006@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Liyuhan</t>
+  </si>
+  <si>
+    <t>王熙茗</t>
+  </si>
+  <si>
+    <t>wa0040ng@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>杨斯乔</t>
+  </si>
+  <si>
+    <t>YANG0966@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>GAO RUOFEI</t>
+  </si>
+  <si>
+    <t>gaoruofei1031@gmail.com</t>
+  </si>
+  <si>
+    <t>ZHANG QUNYI</t>
+  </si>
+  <si>
+    <t>ZH0046YI@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>万木森</t>
+  </si>
+  <si>
+    <t>WANM0009@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>武镜如</t>
+  </si>
+  <si>
+    <t>wu0002ru@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>史笑宇</t>
+  </si>
+  <si>
+    <t>B240032@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>殷诗惠</t>
+  </si>
+  <si>
+    <t>Yins0008@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>高若菲</t>
+  </si>
+  <si>
+    <t>RGAO004@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>曲语霏</t>
+  </si>
+  <si>
+    <t>QU000EI@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>鄢满</t>
+  </si>
+  <si>
+    <t>YANM0010@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>何瑾琨</t>
+  </si>
+  <si>
+    <t>NIE25.HJ2776@E.NTU.EDU.SG</t>
+  </si>
+  <si>
+    <t>张雨晴</t>
+  </si>
+  <si>
+    <t>m250029@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>卫嘉荣</t>
+  </si>
+  <si>
+    <t>jwei012@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>331601294@qq.com</t>
+  </si>
+  <si>
+    <t>徐皓辰</t>
+  </si>
+  <si>
+    <t>钟智轩</t>
+  </si>
+  <si>
+    <t>zchoong002@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>林俊扬</t>
+  </si>
+  <si>
+    <t>RLIM096@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>黄汇希</t>
+  </si>
+  <si>
+    <t>HNG057@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>黄佳慧</t>
+  </si>
+  <si>
+    <t>JNG321@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>ntugsa-dancecrew@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>刘乔丹</t>
+  </si>
+  <si>
+    <t>QIAODAN001@e.ntu.edu.sg </t>
+  </si>
+  <si>
+    <t>冒欣</t>
+  </si>
+  <si>
+    <t>MAOX0012@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Xin Le</t>
+  </si>
+  <si>
+    <t>yvchqnx@gmail.com</t>
+  </si>
+  <si>
+    <t>Josie</t>
+  </si>
+  <si>
+    <t>jtan61012@gmail.com</t>
+  </si>
+  <si>
+    <t>Wei Ning</t>
+  </si>
+  <si>
+    <t>weiningwong0903@gmail.com</t>
+  </si>
+  <si>
+    <t>Callista</t>
+  </si>
+  <si>
+    <t>callistakhoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Irdina</t>
+  </si>
+  <si>
+    <t>luvirdina05@gmail.com</t>
+  </si>
+  <si>
+    <t>张钰淇</t>
+  </si>
+  <si>
+    <t>yzhang352@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>门一迪</t>
+  </si>
+  <si>
+    <t>ME0001DI@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>徐铭成</t>
+  </si>
+  <si>
+    <t>2568643421@qq.com</t>
+  </si>
+  <si>
+    <t>张雨茉</t>
+  </si>
+  <si>
+    <t>彭曦娴</t>
+  </si>
+  <si>
+    <t>张雨萱</t>
+  </si>
+  <si>
+    <t>刘梓鑫</t>
+  </si>
+  <si>
+    <t>LIUZ0131@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>陈思璇</t>
+  </si>
+  <si>
+    <t>SCHEN048@E.NTU.EDU.SG</t>
+  </si>
+  <si>
+    <t>丁瑞恩</t>
+  </si>
+  <si>
+    <t>cac-ge@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>ma shang</t>
+  </si>
+  <si>
+    <t>mash0012@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Zhao Lan</t>
+  </si>
+  <si>
+    <t>ZHAO0468@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Xuejiao Zhao</t>
+  </si>
+  <si>
+    <t>xjzhao@ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Zhao Lan (Dancer)</t>
+  </si>
+  <si>
+    <t>Ma Shang (Dancer)</t>
+  </si>
+  <si>
+    <t>Zhiren Gong (Dancer)</t>
+  </si>
+  <si>
+    <t>Fan Wu (Dancer)</t>
+  </si>
+  <si>
+    <t>Fan009@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Junyi Lyu (Dancer)</t>
+  </si>
+  <si>
+    <t>Jessie (Dancer)</t>
+  </si>
+  <si>
+    <t>liw07228@gmail.com</t>
+  </si>
+  <si>
+    <t>Apple (Dancer)</t>
+  </si>
+  <si>
+    <t>Apple.kung2009@hotmail.com</t>
+  </si>
+  <si>
+    <t>Qiaoling Luo (Dancer)</t>
+  </si>
+  <si>
+    <t>erin_luoql@163.com</t>
+  </si>
+  <si>
+    <t>Yifei Li (Dancer)</t>
+  </si>
+  <si>
+    <t>YoYo (Dancer)</t>
+  </si>
+  <si>
+    <t>方玥涵 </t>
+  </si>
+  <si>
+    <t>NIE25.ZT1176@E.NTU.EDU.SG</t>
+  </si>
+  <si>
+    <t>金志凌</t>
+  </si>
+  <si>
+    <t>JINZ0013@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>VERMA ANANYA</t>
+  </si>
+  <si>
+    <t>ananya026@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>马旻</t>
+  </si>
+  <si>
+    <t>nie23.mm4805@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>翟婧圯</t>
+  </si>
+  <si>
+    <t>zh0052yi@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>刘曦远</t>
+  </si>
+  <si>
+    <t>xiyuan005@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Huang Hao Jie</t>
+  </si>
+  <si>
+    <t>haojie002@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>苏子淇</t>
+  </si>
+  <si>
+    <t>ZSU008@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Chen Li</t>
+  </si>
+  <si>
+    <t>N2505286J@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Li Boyao</t>
+  </si>
+  <si>
+    <t>boyao001@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Pan Jie</t>
+  </si>
+  <si>
+    <t>panj0028@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Lian ruoqi</t>
+  </si>
+  <si>
+    <t>N2505519J@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Ni yulong</t>
+  </si>
+  <si>
+    <t>N2505362E@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Wang Nanxi</t>
+  </si>
+  <si>
+    <t>nanxi.wang@ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Ding ning</t>
+  </si>
+  <si>
+    <t>Ding0141@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>wei ning</t>
+  </si>
+  <si>
+    <t>黄妍茜</t>
+  </si>
+  <si>
+    <t>HU0004XI@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>张津铭</t>
+  </si>
+  <si>
+    <t>zjm800@163.com</t>
+  </si>
+  <si>
+    <t>Cindy Zhou Danxin</t>
+  </si>
+  <si>
+    <t>danxincindy@gmail.com</t>
+  </si>
+  <si>
+    <t>Natalie Ng</t>
+  </si>
+  <si>
+    <t>NNG037@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>He Haoshen</t>
+  </si>
+  <si>
+    <t>HAOSHEN001@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Liu Haoran</t>
+  </si>
+  <si>
+    <t>LIUH0120@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Cai Lifang</t>
+  </si>
+  <si>
+    <t>LCAI007@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Qiu Yujie</t>
+  </si>
+  <si>
+    <t>QIUY0014@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Toh Yi Xian</t>
+  </si>
+  <si>
+    <t>YTOH034@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Ryan Teng</t>
+  </si>
+  <si>
+    <t>RYAN0086@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>Zhu jinbo</t>
+  </si>
+  <si>
+    <t>T6111</t>
+  </si>
+  <si>
+    <t>T6112</t>
+  </si>
+  <si>
+    <t>T6113</t>
+  </si>
+  <si>
+    <t>T6114</t>
+  </si>
+  <si>
+    <t>T6115</t>
+  </si>
+  <si>
+    <t>T6116</t>
+  </si>
+  <si>
+    <t>T6117</t>
+  </si>
+  <si>
+    <t>T6118</t>
+  </si>
+  <si>
+    <t>T6119</t>
+  </si>
+  <si>
+    <t>T6120</t>
+  </si>
+  <si>
+    <t>T6121</t>
+  </si>
+  <si>
+    <t>T6122</t>
+  </si>
+  <si>
+    <t>T6123</t>
+  </si>
+  <si>
+    <t>T6124</t>
+  </si>
+  <si>
+    <t>T6125</t>
+  </si>
+  <si>
+    <t>T6126</t>
+  </si>
+  <si>
+    <t>T6127</t>
+  </si>
+  <si>
+    <t>T6128</t>
+  </si>
+  <si>
+    <t>T6129</t>
+  </si>
+  <si>
+    <t>T6130</t>
+  </si>
+  <si>
+    <t>T6131</t>
+  </si>
+  <si>
+    <t>T6132</t>
+  </si>
+  <si>
+    <t>T6133</t>
+  </si>
+  <si>
+    <t>T6134</t>
+  </si>
+  <si>
+    <t>T6135</t>
+  </si>
+  <si>
+    <t>T6136</t>
+  </si>
+  <si>
+    <t>T6137</t>
+  </si>
+  <si>
+    <t>T6138</t>
+  </si>
+  <si>
+    <t>T6139</t>
+  </si>
+  <si>
+    <t>T6140</t>
+  </si>
+  <si>
+    <t>T6141</t>
+  </si>
+  <si>
+    <t>T6142</t>
+  </si>
+  <si>
+    <t>T6143</t>
+  </si>
+  <si>
+    <t>T6144</t>
+  </si>
+  <si>
+    <t>T6145</t>
+  </si>
+  <si>
+    <t>T6146</t>
+  </si>
+  <si>
+    <t>T6147</t>
+  </si>
+  <si>
+    <t>T6148</t>
+  </si>
+  <si>
+    <t>T6149</t>
+  </si>
+  <si>
+    <t>T6150</t>
+  </si>
+  <si>
+    <t>T6151</t>
+  </si>
+  <si>
+    <t>T6152</t>
+  </si>
+  <si>
+    <t>T6153</t>
+  </si>
+  <si>
+    <t>T6154</t>
+  </si>
+  <si>
+    <t>T6155</t>
+  </si>
+  <si>
+    <t>T6156</t>
+  </si>
+  <si>
+    <t>T6157</t>
+  </si>
+  <si>
+    <t>T6158</t>
+  </si>
+  <si>
+    <t>T6159</t>
+  </si>
+  <si>
+    <t>T6160</t>
+  </si>
+  <si>
+    <t>T6161</t>
+  </si>
+  <si>
+    <t>T6162</t>
+  </si>
+  <si>
+    <t>T6163</t>
+  </si>
+  <si>
+    <t>T6164</t>
+  </si>
+  <si>
+    <t>T6165</t>
+  </si>
+  <si>
+    <t>T6166</t>
+  </si>
+  <si>
+    <t>T6167</t>
+  </si>
+  <si>
+    <t>T6168</t>
+  </si>
+  <si>
+    <t>T6169</t>
+  </si>
+  <si>
+    <t>T6170</t>
+  </si>
+  <si>
+    <t>T6171</t>
+  </si>
+  <si>
+    <t>T6172</t>
+  </si>
+  <si>
+    <t>T6173</t>
+  </si>
+  <si>
+    <t>T6174</t>
+  </si>
+  <si>
+    <t>T6175</t>
+  </si>
+  <si>
+    <t>T6176</t>
+  </si>
+  <si>
+    <t>T6177</t>
+  </si>
+  <si>
+    <t>T6178</t>
+  </si>
+  <si>
+    <t>T6179</t>
+  </si>
+  <si>
+    <t>T6180</t>
+  </si>
+  <si>
+    <t>T6181</t>
+  </si>
+  <si>
+    <t>T6182</t>
+  </si>
+  <si>
+    <t>T6183</t>
+  </si>
+  <si>
+    <t>T6184</t>
+  </si>
+  <si>
+    <t>T6185</t>
+  </si>
+  <si>
+    <t>T6186</t>
+  </si>
+  <si>
+    <t>T6187</t>
+  </si>
+  <si>
+    <t>T6188</t>
+  </si>
+  <si>
+    <t>T6189</t>
+  </si>
+  <si>
+    <t>T6190</t>
+  </si>
+  <si>
+    <t>T6191</t>
+  </si>
+  <si>
+    <t>T6192</t>
+  </si>
+  <si>
+    <t>T6193</t>
+  </si>
+  <si>
+    <t>T6194</t>
+  </si>
+  <si>
+    <t>T6195</t>
+  </si>
+  <si>
+    <t>T6196</t>
+  </si>
+  <si>
+    <t>T6197</t>
+  </si>
+  <si>
+    <t>T6198</t>
+  </si>
+  <si>
+    <t>T6199</t>
+  </si>
+  <si>
+    <t>T6200</t>
+  </si>
+  <si>
+    <t>T6201</t>
+  </si>
+  <si>
+    <t>T6202</t>
+  </si>
+  <si>
+    <t>T6203</t>
+  </si>
+  <si>
+    <t>T6204</t>
+  </si>
+  <si>
+    <t>T6205</t>
+  </si>
+  <si>
+    <t>T6206</t>
+  </si>
+  <si>
+    <t>T6207</t>
+  </si>
+  <si>
+    <t>T6208</t>
+  </si>
+  <si>
+    <t>T6209</t>
+  </si>
+  <si>
+    <t>T6210</t>
+  </si>
+  <si>
+    <t>T6211</t>
+  </si>
+  <si>
+    <t>T6212</t>
+  </si>
+  <si>
+    <t>T6213</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +1818,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1020,12 +1874,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB5C3C3-5787-4549-A61C-A9753935568B}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="178" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2861,13 +3717,1137 @@
         <v>7</v>
       </c>
     </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B113" t="s">
+        <v>488</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" t="s">
+        <v>490</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" t="s">
+        <v>492</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" t="s">
+        <v>494</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" t="s">
+        <v>496</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B123" t="s">
+        <v>498</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" t="s">
+        <v>500</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B127" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131" t="s">
+        <v>506</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B133" t="s">
+        <v>508</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B135" t="s">
+        <v>510</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" t="s">
+        <v>512</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" t="s">
+        <v>514</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143" t="s">
+        <v>518</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B145" t="s">
+        <v>520</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" t="s">
+        <v>522</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" t="s">
+        <v>524</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B151" t="s">
+        <v>526</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B153" t="s">
+        <v>528</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>530</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B157" t="s">
+        <v>532</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" t="s">
+        <v>534</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>536</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B163" t="s">
+        <v>538</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165" t="s">
+        <v>540</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B167" t="s">
+        <v>542</v>
+      </c>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B169" t="s">
+        <v>544</v>
+      </c>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B171" t="s">
+        <v>546</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B173" t="s">
+        <v>548</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B175" t="s">
+        <v>550</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" t="s">
+        <v>552</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B179" t="s">
+        <v>554</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B181" t="s">
+        <v>556</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B183" t="s">
+        <v>558</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B185" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B187" t="s">
+        <v>562</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B189" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B191" t="s">
+        <v>566</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B193" t="s">
+        <v>568</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B195" t="s">
+        <v>570</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B197" t="s">
+        <v>572</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B199" t="s">
+        <v>574</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B201" t="s">
+        <v>576</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B203" t="s">
+        <v>578</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C204" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B205" t="s">
+        <v>580</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B207" t="s">
+        <v>582</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B209" t="s">
+        <v>584</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B211" t="s">
+        <v>586</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B213" t="s">
+        <v>588</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
